--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-05T10:16:45+00:00</t>
+    <t>2024-04-05T10:23:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
